--- a/Important.xlsx
+++ b/Important.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shrey\Desktop\InternshipNotes\Data Structures\StriverA2Z\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0FD8879-C26E-43DD-B85A-B0371D196500}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E1C0C7C-A2FA-48D1-8E6E-C9B78CB4BD79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>Longest Subarray with sum K = First approach is to use HashMap which will work with negative numbers also ,and better approach is to use variable size Sliding window but it will not work with the negative values</t>
   </si>
@@ -36,9 +36,6 @@
     <t>Arrays Medium</t>
   </si>
   <si>
-    <t>Sort array of 0,1,2 using Dutch National Flag algorithm (three pointer)</t>
-  </si>
-  <si>
     <t>Stock Buy and Sell</t>
   </si>
   <si>
@@ -51,15 +48,6 @@
     <t>Arrays Hard</t>
   </si>
   <si>
-    <t>3 Sum</t>
-  </si>
-  <si>
-    <t>4 Sum</t>
-  </si>
-  <si>
-    <t>Repeating and Missing number</t>
-  </si>
-  <si>
     <t>Count inversions (It is not a conceptual problem , but a problem to learn)</t>
   </si>
   <si>
@@ -75,9 +63,6 @@
     <t xml:space="preserve">Rearrange array element by sign= usme 2 pointer rakho pos and neg pointing to last positive number nad last negative number and ek pointer ko iterate krne ke liye if number is negative toh use neg pointer ke index pr daalo and neg=neg+2 else use pos vaale index pr daalo and pos=pos+2 </t>
   </si>
   <si>
-    <t>Pascal Triangle</t>
-  </si>
-  <si>
     <t>Maximum Product Subarray = Either prefix or suffix is going to be the answer. If 0 comes out in product toh 1 krdo. And prefix, suffix nikaalne ke liye ek hi baar traverse krna hai 2 baar nhi</t>
   </si>
   <si>
@@ -123,9 +108,6 @@
     <t>LinkedList Easy</t>
   </si>
   <si>
-    <t xml:space="preserve">Reverse DLL = jese swap vaiables ka code hota hai ese hi swap next and previous of a node ka likh do. Fir DLL traverse kro and ek ek krke sabpr vo vaala function run krvaa do. But yaad rahe A-&gt;B-&gt;C hai and tumne B pr swap call kr diya ab tumhe C pr krna hai toh B se C pr jaane ke liye B.next mat krna coz B ke next and previous swapped ho chuke hai toh B.previous kroge tab C pr jaaoge </t>
-  </si>
-  <si>
     <t>LinkedList Medium</t>
   </si>
   <si>
@@ -141,9 +123,6 @@
     <t>Sort LL =  Do it using mergesort. First divide the list into 2 halves(disconnect them). Then sort each half individually. Then combine them.</t>
   </si>
   <si>
-    <t>Intersection Of LL = take 2 pointers each at head of 2 LL. Move them 1 step at a time, if any one of them becomes null than put thme at head of another list</t>
-  </si>
-  <si>
     <t>Add 2 numbers in LL = It is simple because numbers are reversed toh left to right add krte jaao l1.element+l2.element+carry and if it is &gt;-10 toh carry ko update krte jaao</t>
   </si>
   <si>
@@ -187,6 +166,45 @@
   </si>
   <si>
     <t xml:space="preserve">NextGreaterElementII = ya toh 2 baar loop chalao NextGreaterElementI vaali ya new array=nums+nums toh saare repetations include ho jaaege </t>
+  </si>
+  <si>
+    <t>Sort array of 0,1,2 using Dutch National Flag algorithm (three pointer). Ya fir 2 pointer lo ek number of 0 bataega and ek number of 1 and poora array traverse krlo toh tumhe number of 0,1,2 pata pad gye ab usi array mai 0,1,2 respective number of times daal do</t>
+  </si>
+  <si>
+    <t>PrintMatrixInSpiralManner- 4 pointers lo top,bottom,left,rigth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LongestConsecutiveSubsequence - sort the array </t>
+  </si>
+  <si>
+    <t>PeakIn2DMatrix - peak vo h jo uper,neeche,left,right sabse bada hai.Start with (0,0) agar vo chaaro se bada hai toh vahi ans hai else jisse vo chota hai vo possible ans hai toh uske paas jaao</t>
+  </si>
+  <si>
+    <t>MedianIn2DMatrix - min,max element nikaalo, ans unhi ke beeach aaeha toh vahi search space hai ab mid. Now start=min, end=max, mid nikaalo and fir check kro ki mid se chote agar n/2 elements hai toh vahi ans hai</t>
+  </si>
+  <si>
+    <t>Pascal Triangle=(r,c) ka ans (r-1)C(c-1) hoga</t>
+  </si>
+  <si>
+    <t>4 Sum - Sort the array and choose 2 pointers then apply 2 pointer approach</t>
+  </si>
+  <si>
+    <t>3 Sum - Choose a number i using for loop, then question is reduced to 2 sum ab 2 numbers find krne hai such that there sum is target-arr[i]. Bas 2Sum i+1 se n tak ke liye lagana 0 to n mai mat lagana or Sort the array and choose 1 pointer then apply 2 pointer approach</t>
+  </si>
+  <si>
+    <t>Repeating and Missing number = sum of elements of array and sum of square of elements of array se 2 equations banao, 2 variables hai toh easily solve ho jaaega</t>
+  </si>
+  <si>
+    <t>Reverse DLL = If the question was reverse an array/string toh easily ho jaata. Toh DLL bhi array jaisa hi hai coz usme bhi aage peeche jaa skte hai .i=0;j=n-1; then swap(i,j) then i++ j--. Ese hi isme krlo i=head; j=tail(iterate to find tail) the swap value of i,j then i=i.next ; j=j.prev;</t>
+  </si>
+  <si>
+    <t>Intersection Of LL = take 2 pointers each at head of 2 LL. Move them 1 step at a time, if any one of them becomes null than put that at head of another list</t>
+  </si>
+  <si>
+    <t>TrappingRainWater</t>
+  </si>
+  <si>
+    <t>LargestRectangleInHistogram</t>
   </si>
 </sst>
 </file>
@@ -513,10 +531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A67"/>
+  <dimension ref="A1:A70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="93" workbookViewId="0">
-      <selection activeCell="R55" sqref="R55"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="93" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -528,7 +546,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
@@ -543,252 +561,282 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>7</v>
+      <c r="A14" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>8</v>
+      <c r="A15" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>19</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>22</v>
+      <c r="A27" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>23</v>
+      <c r="A28" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>28</v>
+      <c r="A34" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
-        <v>33</v>
+      <c r="A40" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>34</v>
+      <c r="A43" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>42</v>
+      <c r="A52" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A56" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A59" s="1" t="s">
-        <v>47</v>
+      <c r="A57" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A62" s="1" t="s">
-        <v>49</v>
+      <c r="A60" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>50</v>
+      <c r="A63" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A66" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>53</v>
+      <c r="A67" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/Important.xlsx
+++ b/Important.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shrey\Desktop\InternshipNotes\Data Structures\StriverA2Z\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E1C0C7C-A2FA-48D1-8E6E-C9B78CB4BD79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB81051B-1922-40A8-B630-4E8B4BA3CB5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <si>
     <t>Longest Subarray with sum K = First approach is to use HashMap which will work with negative numbers also ,and better approach is to use variable size Sliding window but it will not work with the negative values</t>
   </si>
@@ -205,6 +205,36 @@
   </si>
   <si>
     <t>LargestRectangleInHistogram</t>
+  </si>
+  <si>
+    <t>Binary Tree Medium</t>
+  </si>
+  <si>
+    <t>Height, Diameter, MaxSumPath teeno ek hi tarah ke question hai jinme postorder traversal lagega</t>
+  </si>
+  <si>
+    <t>VerticalOrderTravrsal = Pair class banao jisme node,horizontal,vertical level store hoga use ndoe ka. Ab kisi bhi traversal technique se saari nodes ko traverse krke min heap mai daal do. Min heap ka sorting order-horizontal,vertical,nod.val hoga. Fir us minheap ke elements ko arrraylist mai daal kr return krdo</t>
+  </si>
+  <si>
+    <t>TopView = Hashamap banao horizontal level-&gt; node.Level order traverse kro and agar kisi horizonatal level par agar pehle se koi node nhi hai toh use daaldo</t>
+  </si>
+  <si>
+    <t>BottomView= Same as top view bas usme agar hashmap mai pehle se horizontal level pr koi hai toh update nhi krte the , isme karege coz last node of that horizontal level chaiye</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RightView - DFS traversal kr(Node Right Left) toh har baar call rightmost node ko hi jaaega har verticallevel ke. Toh jese hi call hua toh answer mai daal do coz rightmost level pr hi jaaega sabse pehle, but baad mai jab vo same vertical level ke left nodes ko naa dale toh uske liye ek condition laga do </t>
+  </si>
+  <si>
+    <t>Binary Tree Hard</t>
+  </si>
+  <si>
+    <t>RootToNodePath - Recursive traversal kro and agar tumhe target milta hai toh true return krdo jisse aage ki calls na ho, and har node pr jaate time use add krlo and aate time use remove krdo</t>
+  </si>
+  <si>
+    <t>LowestCommonAncestor</t>
+  </si>
+  <si>
+    <t>MaximumWidthOfBT</t>
   </si>
 </sst>
 </file>
@@ -531,10 +561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A70"/>
+  <dimension ref="A1:A82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="93" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="93" workbookViewId="0">
+      <selection activeCell="A82" sqref="A82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -839,6 +869,56 @@
         <v>59</v>
       </c>
     </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>69</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Important.xlsx
+++ b/Important.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shrey\Desktop\InternshipNotes\Data Structures\StriverA2Z\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB81051B-1922-40A8-B630-4E8B4BA3CB5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04F059F1-D86A-4C41-B3E3-1D0FDA05FD02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <si>
     <t>Longest Subarray with sum K = First approach is to use HashMap which will work with negative numbers also ,and better approach is to use variable size Sliding window but it will not work with the negative values</t>
   </si>
@@ -235,6 +235,15 @@
   </si>
   <si>
     <t>MaximumWidthOfBT</t>
+  </si>
+  <si>
+    <t>BST Problems</t>
+  </si>
+  <si>
+    <t>KthSmallestNumber - inorder of BST is sorted toh inorder traversal mai kth node answer hai</t>
+  </si>
+  <si>
+    <t>CheckIfTreeIsBST - left and right ki condition se kaam nhi chalega, usme range banani padegi.</t>
   </si>
 </sst>
 </file>
@@ -561,10 +570,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A82"/>
+  <dimension ref="A1:A86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="93" workbookViewId="0">
-      <selection activeCell="A82" sqref="A82"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="93" workbookViewId="0">
+      <selection activeCell="N85" sqref="N85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -919,6 +928,21 @@
         <v>69</v>
       </c>
     </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>72</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Important.xlsx
+++ b/Important.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shrey\Desktop\InternshipNotes\Data Structures\StriverA2Z\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04F059F1-D86A-4C41-B3E3-1D0FDA05FD02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C261174-6F2E-4E42-9D46-A59CB2494C45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t>Longest Subarray with sum K = First approach is to use HashMap which will work with negative numbers also ,and better approach is to use variable size Sliding window but it will not work with the negative values</t>
   </si>
@@ -244,6 +244,9 @@
   </si>
   <si>
     <t>CheckIfTreeIsBST - left and right ki condition se kaam nhi chalega, usme range banani padegi.</t>
+  </si>
+  <si>
+    <t>Sort array elements by frequency - This is not in Striver A2Z. You have to do brute force only. First create hashmap to map element to frequency then puth values of hashmap into Arraylist, then sort the arraylist by frequency then again fill array and return.</t>
   </si>
 </sst>
 </file>
@@ -572,8 +575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="93" workbookViewId="0">
-      <selection activeCell="N85" sqref="N85"/>
+    <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -593,6 +596,11 @@
         <v>0</v>
       </c>
     </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>73</v>
+      </c>
+    </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>2</v>

--- a/Important.xlsx
+++ b/Important.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shrey\Desktop\InternshipNotes\Data Structures\StriverA2Z\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C261174-6F2E-4E42-9D46-A59CB2494C45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5907BF7-9B99-41A7-B32A-DC02533F2DAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -210,15 +210,9 @@
     <t>Binary Tree Medium</t>
   </si>
   <si>
-    <t>Height, Diameter, MaxSumPath teeno ek hi tarah ke question hai jinme postorder traversal lagega</t>
-  </si>
-  <si>
     <t>VerticalOrderTravrsal = Pair class banao jisme node,horizontal,vertical level store hoga use ndoe ka. Ab kisi bhi traversal technique se saari nodes ko traverse krke min heap mai daal do. Min heap ka sorting order-horizontal,vertical,nod.val hoga. Fir us minheap ke elements ko arrraylist mai daal kr return krdo</t>
   </si>
   <si>
-    <t>TopView = Hashamap banao horizontal level-&gt; node.Level order traverse kro and agar kisi horizonatal level par agar pehle se koi node nhi hai toh use daaldo</t>
-  </si>
-  <si>
     <t>BottomView= Same as top view bas usme agar hashmap mai pehle se horizontal level pr koi hai toh update nhi krte the , isme karege coz last node of that horizontal level chaiye</t>
   </si>
   <si>
@@ -247,6 +241,12 @@
   </si>
   <si>
     <t>Sort array elements by frequency - This is not in Striver A2Z. You have to do brute force only. First create hashmap to map element to frequency then puth values of hashmap into Arraylist, then sort the arraylist by frequency then again fill array and return.</t>
+  </si>
+  <si>
+    <t>Height, Diameter, MaxSumPath teeno ek hi tarah ke question hai jinme function heigt vaala hi use hoga bas ek extra line add hogi answer update krne ke liye. And ans parameter mai pass karege</t>
+  </si>
+  <si>
+    <t>TopView = Hashamap banao horizontal level-&gt; node . Level order traverse kro poore tree ka and agar kisi horizonatal level par agar pehle se koi node nhi hai, means ki vo node topmost hai us horizontal level ki toh use daaldo</t>
   </si>
 </sst>
 </file>
@@ -575,8 +575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A71" zoomScale="93" workbookViewId="0">
+      <selection activeCell="N79" sqref="N79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -598,7 +598,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
@@ -893,62 +893,62 @@
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/Important.xlsx
+++ b/Important.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shrey\Desktop\InternshipNotes\Data Structures\StriverA2Z\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5907BF7-9B99-41A7-B32A-DC02533F2DAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{381CA97E-363D-4613-A82E-897C4B5645E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
   <si>
     <t>Longest Subarray with sum K = First approach is to use HashMap which will work with negative numbers also ,and better approach is to use variable size Sliding window but it will not work with the negative values</t>
   </si>
@@ -165,9 +165,6 @@
     <t>Stack problems</t>
   </si>
   <si>
-    <t xml:space="preserve">NextGreaterElementII = ya toh 2 baar loop chalao NextGreaterElementI vaali ya new array=nums+nums toh saare repetations include ho jaaege </t>
-  </si>
-  <si>
     <t>Sort array of 0,1,2 using Dutch National Flag algorithm (three pointer). Ya fir 2 pointer lo ek number of 0 bataega and ek number of 1 and poora array traverse krlo toh tumhe number of 0,1,2 pata pad gye ab usi array mai 0,1,2 respective number of times daal do</t>
   </si>
   <si>
@@ -201,12 +198,6 @@
     <t>Intersection Of LL = take 2 pointers each at head of 2 LL. Move them 1 step at a time, if any one of them becomes null than put that at head of another list</t>
   </si>
   <si>
-    <t>TrappingRainWater</t>
-  </si>
-  <si>
-    <t>LargestRectangleInHistogram</t>
-  </si>
-  <si>
     <t>Binary Tree Medium</t>
   </si>
   <si>
@@ -222,15 +213,6 @@
     <t>Binary Tree Hard</t>
   </si>
   <si>
-    <t>RootToNodePath - Recursive traversal kro and agar tumhe target milta hai toh true return krdo jisse aage ki calls na ho, and har node pr jaate time use add krlo and aate time use remove krdo</t>
-  </si>
-  <si>
-    <t>LowestCommonAncestor</t>
-  </si>
-  <si>
-    <t>MaximumWidthOfBT</t>
-  </si>
-  <si>
     <t>BST Problems</t>
   </si>
   <si>
@@ -247,6 +229,30 @@
   </si>
   <si>
     <t>TopView = Hashamap banao horizontal level-&gt; node . Level order traverse kro poore tree ka and agar kisi horizonatal level par agar pehle se koi node nhi hai, means ki vo node topmost hai us horizontal level ki toh use daaldo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RootToNodePath - Jab bhi kisi node par jaao toh check kro ki vo target toh nh hai, if yes then don't call further. Agar current node target nhi hai, toh apan ko pata nhi hai ki uske left ya right subtree mai target hai ki nhi toh currentNode ko ans mai add kro, and right and left subtree visit kro to see if target is there or not, if no toh currentNode jisko ans arraylist mai add kra tha use remove krna padega kiuki vo root to target ke path mai nhi hai, toh vaapis aate time(backtrack) mai use ans arraylist se hata dena </t>
+  </si>
+  <si>
+    <t>LowestCommonAncestor-Agar p,q milte hai toh unhe return kro, agar kisi node ke dono children par p,q hai toh vo LCA hoga. Agar kisi node ke ek children pr p/q hai and doosre pr nhi hai toh jis children ke paas hai uska ans return krdo</t>
+  </si>
+  <si>
+    <t>MaximumWidthOfBT - Don't do it using horizontalLevel. Instead do it using idexing. If current index is i then index of left,right child will be 2*i and 2*i+1. Now levelOrder traversal kro, and dekho us level ka min,max index ka difference hi ans hoga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DeleteNodeInBST - Usme ek hi function mai searching and deleting hoga. If current node is not target toh searching hoga else deletion hoga </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NextGreaterElementII(circular) = ya toh 2 baar loop chalao NextGreaterElementI vaali ya new array=nums+nums toh saare repetations include ho jaaege </t>
+  </si>
+  <si>
+    <t>TwoSumInBST - Convert BST into sorted array and then apply 2 sum on that array using 2 pointers</t>
+  </si>
+  <si>
+    <t>SumOfSubarrayMinimums - Find kro ki ith index ka nse,pse kon hai. Jitne elements left mai mai and right side mai arr[i] se bade hai unhe agar subarray mai include krege toh us subarray ka minimum arr[i] hi hoga. Toh calculate kro kitne ese subarray hoge. Then number of subarrays mai arr[i] ka multiply krke ans mai add krdo</t>
+  </si>
+  <si>
+    <t>SumOfSubarrayRanges - SumOfSubarrayMaximum-SumOfSubarrayMinimums</t>
   </si>
 </sst>
 </file>
@@ -573,10 +579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A86"/>
+  <dimension ref="A1:A88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" zoomScale="93" workbookViewId="0">
-      <selection activeCell="N79" sqref="N79"/>
+    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="93" workbookViewId="0">
+      <selection activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -598,7 +604,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
@@ -608,7 +614,7 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
@@ -643,12 +649,12 @@
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
@@ -658,17 +664,17 @@
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
@@ -683,7 +689,7 @@
     </row>
     <row r="21" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
@@ -708,12 +714,12 @@
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
@@ -768,7 +774,7 @@
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
@@ -798,7 +804,7 @@
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
@@ -873,82 +879,92 @@
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>70</v>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/Important.xlsx
+++ b/Important.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shrey\Desktop\InternshipNotes\Data Structures\StriverA2Z\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{381CA97E-363D-4613-A82E-897C4B5645E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58EF9139-8A2F-4623-B3AE-3A7E084245C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -81,9 +81,6 @@
     <t>Strings Easy</t>
   </si>
   <si>
-    <t>Isomorphic and Anagram Strings mai mapping create kro but through array not through hashmap</t>
-  </si>
-  <si>
     <t>Rotated String = Jab bhi rotation ka question ho toh length add krna and modula use krne ki sochna. s mai s ko concatenate krdo toh all possible rotations ban jaaege ab KMP se check krlo ki 2nd string substring hai kya concatened sting ki</t>
   </si>
   <si>
@@ -111,9 +108,6 @@
     <t>LinkedList Medium</t>
   </si>
   <si>
-    <t>cylic LL mai slow and fast pointer meet karege, uske baad slow ko vaapis head ko point krado, Ab vaapis slow and fast ko ek step badao until they meet. The point of contact is the start of the cycle</t>
-  </si>
-  <si>
     <t>Segregate odd and even = Ek even pointer rakho and ek odd pointer fir odd ko odd pr point krate jaao and even ko even par. End mai odd vaalo ki alag LL bn jaaegi and even vaalo ki alag. Ab unhe combine krne ki condition jaane ke liye 2 test case lelo ek mai even no. of nodes ho and ek mai odd no. of nodes</t>
   </si>
   <si>
@@ -192,9 +186,6 @@
     <t>Repeating and Missing number = sum of elements of array and sum of square of elements of array se 2 equations banao, 2 variables hai toh easily solve ho jaaega</t>
   </si>
   <si>
-    <t>Reverse DLL = If the question was reverse an array/string toh easily ho jaata. Toh DLL bhi array jaisa hi hai coz usme bhi aage peeche jaa skte hai .i=0;j=n-1; then swap(i,j) then i++ j--. Ese hi isme krlo i=head; j=tail(iterate to find tail) the swap value of i,j then i=i.next ; j=j.prev;</t>
-  </si>
-  <si>
     <t>Intersection Of LL = take 2 pointers each at head of 2 LL. Move them 1 step at a time, if any one of them becomes null than put that at head of another list</t>
   </si>
   <si>
@@ -253,6 +244,15 @@
   </si>
   <si>
     <t>SumOfSubarrayRanges - SumOfSubarrayMaximum-SumOfSubarrayMinimums</t>
+  </si>
+  <si>
+    <t>Reverse DLL = Go to each node and reverse its next and previous</t>
+  </si>
+  <si>
+    <t>Start of Cyclic LL - cylic LL mai slow and fast pointer meet karege, uske baad slow ko vaapis head ko point krado, Ab vaapis slow and fast ko ek step badao until they meet. The point of contact is the start of the cycle</t>
+  </si>
+  <si>
+    <t>Isomorphic and Anagram Strings mai mapping create kro but through array not through hashmap.Isomorphic mai s1 to s2 and s2 to s1 dono ki mapping banai padegi</t>
   </si>
 </sst>
 </file>
@@ -581,8 +581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="93" workbookViewId="0">
-      <selection activeCell="A70" sqref="A70"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="93" workbookViewId="0">
+      <selection activeCell="V31" sqref="V31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -604,7 +604,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
@@ -614,7 +614,7 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
@@ -649,12 +649,12 @@
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
@@ -664,17 +664,17 @@
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
@@ -689,7 +689,7 @@
     </row>
     <row r="21" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
@@ -714,12 +714,12 @@
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
@@ -729,242 +729,242 @@
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>18</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>28</v>
+        <v>74</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/Important.xlsx
+++ b/Important.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shrey\Desktop\InternshipNotes\Data Structures\StriverA2Z\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58EF9139-8A2F-4623-B3AE-3A7E084245C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{848A6967-04CD-402A-9064-1E95A18797A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <si>
     <t>Longest Subarray with sum K = First approach is to use HashMap which will work with negative numbers also ,and better approach is to use variable size Sliding window but it will not work with the negative values</t>
   </si>
@@ -96,9 +96,6 @@
     <t>count number of substring with k distinct characters = I have done it through brute force but u should do it in (n) using sliding window</t>
   </si>
   <si>
-    <t>Roman to Integer conversion</t>
-  </si>
-  <si>
     <t>count number of substring, longest palindromic substring, sum of beauty of all substring in sab ko try krna sliding window padhne ke baad</t>
   </si>
   <si>
@@ -253,6 +250,21 @@
   </si>
   <si>
     <t>Isomorphic and Anagram Strings mai mapping create kro but through array not through hashmap.Isomorphic mai s1 to s2 and s2 to s1 dono ki mapping banai padegi</t>
+  </si>
+  <si>
+    <t>Roman to Integer conversion - iterate the roman string, if s[i]&lt;s[i+1] toh s[i] subtract hoga else vo add hoga</t>
+  </si>
+  <si>
+    <t>IntegerToRoman - largest kya subtract kr stke ho usse vo dekho. Agar number is ending on 9,4 toh kuch default cases hote hai unhe handle kr lena, kiuki un cases mai ulta likhte hai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CountNumberOfSubstringsWithExacltyKDistinctCharacters - find the longest substring with k distict characters, then find longest substring with k-1 distinct characters.Then unka jo length ka difference hai usi mai saari sbastring hai with k distinct characters. </t>
+  </si>
+  <si>
+    <t>LongestPalindromicSubstring - We will do it by axis, orbit method. Pehle har element ko axis maanege and uski orbit bada kr check krege ki voh palindrome banega ki nhi. Fir har element ke beech mai axis banaege and orbit bana kr check krege ki palindrome banega ki nhi</t>
+  </si>
+  <si>
+    <t>Slinding Windowand Two Pointers</t>
   </si>
 </sst>
 </file>
@@ -579,10 +591,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A88"/>
+  <dimension ref="A1:A93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="93" workbookViewId="0">
-      <selection activeCell="V31" sqref="V31"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="93" workbookViewId="0">
+      <selection activeCell="A94" sqref="A94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -604,7 +616,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
@@ -614,7 +626,7 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
@@ -649,12 +661,12 @@
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
@@ -664,17 +676,17 @@
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
@@ -689,7 +701,7 @@
     </row>
     <row r="21" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
@@ -714,12 +726,12 @@
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
@@ -729,7 +741,7 @@
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
@@ -759,212 +771,232 @@
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>23</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>73</v>
+      <c r="A40" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>27</v>
+        <v>72</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>28</v>
+      <c r="A46" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>29</v>
+        <v>73</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>31</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52" s="1" t="s">
-        <v>32</v>
+      <c r="A52" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A57" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>42</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A67" s="1" t="s">
-        <v>43</v>
+      <c r="A67" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>72</v>
+      <c r="A70" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A72" s="1" t="s">
-        <v>54</v>
+      <c r="A72" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>64</v>
+      <c r="A75" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>57</v>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A79" s="1" t="s">
-        <v>58</v>
+      <c r="A79" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A84" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>68</v>
+      <c r="A87" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>70</v>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/Important.xlsx
+++ b/Important.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shrey\Desktop\InternshipNotes\Data Structures\StriverA2Z\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{848A6967-04CD-402A-9064-1E95A18797A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEB4E4C8-5514-428A-869D-E4DA0EC41BA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4332" yWindow="2736" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="123">
   <si>
     <t>Longest Subarray with sum K = First approach is to use HashMap which will work with negative numbers also ,and better approach is to use variable size Sliding window but it will not work with the negative values</t>
   </si>
@@ -57,9 +57,6 @@
     <t>Maximum Subarray Sum using Kadane's algorithm jisme apan ye check krte ha ki current element ko sum mai add kre ya new sum create kre</t>
   </si>
   <si>
-    <t>Count Number of Subarrays having sum k. You can do it using a HashMap. Same concept as 2Sum</t>
-  </si>
-  <si>
     <t xml:space="preserve">Rearrange array element by sign= usme 2 pointer rakho pos and neg pointing to last positive number nad last negative number and ek pointer ko iterate krne ke liye if number is negative toh use neg pointer ke index pr daalo and neg=neg+2 else use pos vaale index pr daalo and pos=pos+2 </t>
   </si>
   <si>
@@ -75,9 +72,6 @@
     <t>Find hinge of the rotated sorted array = Rotated sorted array is discontinous graph toh tumhe agar arr[mid]&lt;arr[high] dikha means tum right side pr ho toh left jaao. Else right jaao</t>
   </si>
   <si>
-    <t xml:space="preserve">Rotated sorted array ke saare questions ek hi tarah se solve ho rhe hai if arr[low]&lt;=arr[mid] means ki low to mid sorted hai else if arr[low]&gt;arr[mid] means ki mid to high sorted hai. We can also say it like if arr[mid]&lt;=arr[high] means ki mid to high sorted hai else if arr[mid]&gt;arr[high] means ki low to mid sorted hai </t>
-  </si>
-  <si>
     <t>Strings Easy</t>
   </si>
   <si>
@@ -135,9 +129,6 @@
     <t>Recursion Subsequences</t>
   </si>
   <si>
-    <t xml:space="preserve">Subsets of array = </t>
-  </si>
-  <si>
     <t>Bit Manipulation Easy</t>
   </si>
   <si>
@@ -162,9 +153,6 @@
     <t>PrintMatrixInSpiralManner- 4 pointers lo top,bottom,left,rigth</t>
   </si>
   <si>
-    <t xml:space="preserve">LongestConsecutiveSubsequence - sort the array </t>
-  </si>
-  <si>
     <t>PeakIn2DMatrix - peak vo h jo uper,neeche,left,right sabse bada hai.Start with (0,0) agar vo chaaro se bada hai toh vahi ans hai else jisse vo chota hai vo possible ans hai toh uske paas jaao</t>
   </si>
   <si>
@@ -210,12 +198,6 @@
     <t>CheckIfTreeIsBST - left and right ki condition se kaam nhi chalega, usme range banani padegi.</t>
   </si>
   <si>
-    <t>Sort array elements by frequency - This is not in Striver A2Z. You have to do brute force only. First create hashmap to map element to frequency then puth values of hashmap into Arraylist, then sort the arraylist by frequency then again fill array and return.</t>
-  </si>
-  <si>
-    <t>Height, Diameter, MaxSumPath teeno ek hi tarah ke question hai jinme function heigt vaala hi use hoga bas ek extra line add hogi answer update krne ke liye. And ans parameter mai pass karege</t>
-  </si>
-  <si>
     <t>TopView = Hashamap banao horizontal level-&gt; node . Level order traverse kro poore tree ka and agar kisi horizonatal level par agar pehle se koi node nhi hai, means ki vo node topmost hai us horizontal level ki toh use daaldo</t>
   </si>
   <si>
@@ -265,13 +247,160 @@
   </si>
   <si>
     <t>Slinding Windowand Two Pointers</t>
+  </si>
+  <si>
+    <t>In counting problems, f(k)-f(k-1) se answer aaega, where f(k) is count of subarray lesser than or equal to k</t>
+  </si>
+  <si>
+    <t>Asteroid Collision = +,- will couse collision toh agar current - hai and peek par + hai toh collision krte jaao</t>
+  </si>
+  <si>
+    <t>RemoveKDigits - Starting ke k larger numbers ko hatana hai, overall k largest elemens hatane se ans ni aaega. Toh number ko iterate kro, agar current number chota hai peek se toh peek ko delete krdo else mat kro</t>
+  </si>
+  <si>
+    <t>Asteroid Collision and RemoveKDigits agar ye question aaye toh kese pata padega ki stack ke hai. Ith character ke kaaran 0 to i-1 characters mai deletion/change ho rha hai toh vo stack ka question hai</t>
+  </si>
+  <si>
+    <t>Just solve these questions in notepad-: reverse LL(iterative and recursive),Palidrome LL, Reverse in K group</t>
+  </si>
+  <si>
+    <t>Heaps</t>
+  </si>
+  <si>
+    <t>Sort k sorted array - First k+1 elements ko array mai daalo, kiuki unhi mai se koi 0th index pr jaaega. Fir k+1 se n-1 indexes par jaate jaao peek ko remove krke daalo ans mai and current element ko heap mai daalo</t>
+  </si>
+  <si>
+    <t>LongestRepeatingCharacterReplacement</t>
+  </si>
+  <si>
+    <t>NumberOfSubstringsContainingAllThreeCharacters</t>
+  </si>
+  <si>
+    <t>Read all formats</t>
+  </si>
+  <si>
+    <t>Count Number of Subarrays having sum k. You can do it using a HashMap. Same concept as 2Sum. Or use sliding window usme f(k)-f(k-1) se ans aaega</t>
+  </si>
+  <si>
+    <t>LongestConsecutiveSubsequence - sort the array and keep track of last element of sequence. If current element is 1 greater than last element of sequence then it is part of sequence else it is not part of sequence so create new sequence</t>
+  </si>
+  <si>
+    <t>Rotated sorted array ke saare questions ek hi tarah se solve ho rhe hai if arr[low]&lt;=arr[mid] means ki low to mid sorted hai else if arr[low]&gt;arr[mid] means ki mid to high sorted hai.</t>
+  </si>
+  <si>
+    <t>SplitArrayLargestSum</t>
+  </si>
+  <si>
+    <t>Height, Diameter, MaxSumPath teeno ek hi tarah ke question hai jinme function return vo krega jiski need hai ans calculate krne mai and jo real ans hai use ans paramter mai store krega. Means ans return nhi kr rha hai, ans sirf store kr rha hai</t>
+  </si>
+  <si>
+    <t>Print/Return all subsequences of an array</t>
+  </si>
+  <si>
+    <t>(Print/Return/Count) subsequences with sum k</t>
+  </si>
+  <si>
+    <t>CombinationSum mai list of subsequences return krni hai jinka sum target ho and ek element ko kitni bhi baar le skte hai, toh take vaale case mai index pass krna. CombinationSumII mai bhi same hi kaam krna hai bas ek element ko ek baar le skte hai subsequence mai toh take vaale case mai index+1 pass krdo. So these two are easy questions. But problem tab aati hai jab inme unique subsequence return krne hai jiska method CombinationSumII mai diya hai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subset(Not in sheet) generates all subsets of array, SubsetsII(Not in sheet) generates all unique subsets of array, same method as CombinationSumII </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SubsetSum generates all sum of subsets of array, SubsetsII generates all sum of unique subsets of array, same method as CombinationSumII </t>
+  </si>
+  <si>
+    <t>Phir permutations vaale questions hai jinme TAKE/NOT TAKE vaala scene nhi hai unme saare characters lene hai, bas ordering ke permutations hai.</t>
+  </si>
+  <si>
+    <t>HouseRobberII</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of ways to go from (0,0) to (n-1,n-1), min points required to go from 0,0 to n-1,n-1 </t>
+  </si>
+  <si>
+    <t>DP 1d</t>
+  </si>
+  <si>
+    <t>DP 2D</t>
+  </si>
+  <si>
+    <t>Ninja and his friends</t>
+  </si>
+  <si>
+    <t>DP on Subsequences</t>
+  </si>
+  <si>
+    <t>PartitionArrayIntoTwoArraysToMinimizeSumDifference</t>
+  </si>
+  <si>
+    <t>CountPartitionWithGivenDifference</t>
+  </si>
+  <si>
+    <t>CoinChange</t>
+  </si>
+  <si>
+    <t>DP on Strings</t>
+  </si>
+  <si>
+    <t>Print LCS - you have to first create dp table then you have to iterate over it to find the string</t>
+  </si>
+  <si>
+    <t>length of LCS</t>
+  </si>
+  <si>
+    <t>length of longest common substring</t>
+  </si>
+  <si>
+    <t>MinimumInsertionsToMakeStringPalindrome</t>
+  </si>
+  <si>
+    <t>ShortestCommonSupersequence</t>
+  </si>
+  <si>
+    <t>EditDistance</t>
+  </si>
+  <si>
+    <t>DP on stocks</t>
+  </si>
+  <si>
+    <t>BestTimeToBuySellStock 2</t>
+  </si>
+  <si>
+    <t>DP on LIS</t>
+  </si>
+  <si>
+    <t>LIS</t>
+  </si>
+  <si>
+    <t>Graphs</t>
+  </si>
+  <si>
+    <t>DP on Partition</t>
+  </si>
+  <si>
+    <t>PalindromicPartition</t>
+  </si>
+  <si>
+    <t>CycleDetection - Nodes ke parent mark krte rho. Fir jab node ke neightbours ko visit krne jaa rhe ho toh dekhoge ki voh already visited hai toh ni jaaoge. Toh agar koi node already visited hai and parent ni hai toh vo cycle hai</t>
+  </si>
+  <si>
+    <t>RottenOranges</t>
+  </si>
+  <si>
+    <t>0-1 Matrix</t>
+  </si>
+  <si>
+    <t>ShortesPathBetweenTwoNodes</t>
+  </si>
+  <si>
+    <t>Median of two sorted arrays</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -283,6 +412,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -308,9 +444,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -591,10 +728,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A93"/>
+  <dimension ref="A1:A143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="93" workbookViewId="0">
-      <selection activeCell="A94" sqref="A94"/>
+    <sheetView tabSelected="1" topLeftCell="A74" zoomScale="93" workbookViewId="0">
+      <selection activeCell="B88" sqref="B88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -614,11 +751,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>61</v>
-      </c>
-    </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>2</v>
@@ -626,7 +758,7 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
@@ -651,152 +783,148 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>14</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>17</v>
+      <c r="A28" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>18</v>
+        <v>122</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>20</v>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>21</v>
+      <c r="A34" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>75</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>76</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>78</v>
+      <c r="A39" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>77</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
-        <v>24</v>
+      <c r="A43" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
@@ -804,199 +932,427 @@
         <v>72</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>73</v>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>26</v>
+      <c r="A48" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>52</v>
+      <c r="A51" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>30</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55" s="1" t="s">
-        <v>31</v>
+      <c r="A55" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A60" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>36</v>
+      <c r="A61" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A63" s="1" t="s">
-        <v>37</v>
+      <c r="A63" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>40</v>
+        <v>89</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>41</v>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A70" s="1" t="s">
-        <v>42</v>
+      <c r="A70" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>71</v>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A75" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>62</v>
+      <c r="A75" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>54</v>
+      <c r="A77" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>56</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A82" s="1" t="s">
-        <v>57</v>
+      <c r="A82" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
+      <c r="A83" s="2" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
+      <c r="A84" s="2" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>66</v>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A87" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
-        <v>59</v>
+      <c r="A87" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
-        <v>60</v>
+      <c r="A89" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>69</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A93" s="1" t="s">
+      <c r="A93" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A101" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A107" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A113" s="1" t="s">
         <v>79</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A116" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A118" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A121" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A125" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A132" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A134" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A136" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A138" s="1"/>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A139" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/Important.xlsx
+++ b/Important.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shrey\Desktop\InternshipNotes\Data Structures\StriverA2Z\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEB4E4C8-5514-428A-869D-E4DA0EC41BA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9D97820-1B7B-4088-A1E1-E1DA024CB8D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4332" yWindow="2736" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
   <si>
     <t>Longest Subarray with sum K = First approach is to use HashMap which will work with negative numbers also ,and better approach is to use variable size Sliding window but it will not work with the negative values</t>
   </si>
@@ -394,6 +394,9 @@
   </si>
   <si>
     <t>Median of two sorted arrays</t>
+  </si>
+  <si>
+    <t>Max_Of_Min in BS on Ans = Min ans ke uper iterate kro and find the max. Means search space will be min ans. And we have to find the maximum element in the search space which satisfies the condition. And predicate function likhne ke liye ulta socha karo</t>
   </si>
 </sst>
 </file>
@@ -728,10 +731,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A143"/>
+  <dimension ref="A1:A144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" zoomScale="93" workbookViewId="0">
-      <selection activeCell="B88" sqref="B88"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="93" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -854,504 +857,509 @@
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>13</v>
+        <v>123</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>122</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>21</v>
+        <v>69</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>70</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A61" s="1" t="s">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A66" s="1" t="s">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A74" s="1" t="s">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A77" s="1" t="s">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A81" s="1" t="s">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A83" s="2" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85" s="2" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A89" s="1" t="s">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90" s="1" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>50</v>
+        <v>88</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A96" s="1" t="s">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97" s="1" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A101" s="1" t="s">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A102" s="1" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A107" s="1" t="s">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A108" s="1" t="s">
         <v>73</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A113" s="1" t="s">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A114" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A114" t="s">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A116" s="1" t="s">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A117" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A117" t="s">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A118" s="1" t="s">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A119" s="1" t="s">
         <v>98</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A119" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A121" s="1" t="s">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A122" s="1" t="s">
         <v>100</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A122" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A125" s="1" t="s">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A126" s="1" t="s">
         <v>104</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A126" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A132" s="1" t="s">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A133" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A133" t="s">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A134" s="1" t="s">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A135" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A135" t="s">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A136" s="1" t="s">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A137" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A137" t="s">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A138" s="1"/>
-    </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A139" s="1" t="s">
+      <c r="A139" s="1"/>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A140" s="1" t="s">
         <v>115</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A140" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
         <v>121</v>
       </c>
     </row>
